--- a/data/Results/ShortAnswerGrandingV2.xlsx
+++ b/data/Results/ShortAnswerGrandingV2.xlsx
@@ -8,26 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbrandt/Dropbox/PycharmProjects/short_answer_granding_capstone_project/data/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C4095A-DD5B-0448-9521-0DE7B9251F53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB23AAE8-22B9-2444-94E4-172C9EB5AB2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23740" yWindow="2760" windowWidth="28040" windowHeight="17440" xr2:uid="{74EE537B-979F-D844-81CC-929D075ED3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ShortAnswer Hypertuning Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'ShortAnswer Hypertuning Results'!$A$2:$A$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'ShortAnswer Hypertuning Results'!$G$2:$G$20</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'ShortAnswer Hypertuning Results'!$G$2:$G$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'ShortAnswer Hypertuning Results'!$A$2:$A$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'ShortAnswer Hypertuning Results'!$G$2:$G$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'ShortAnswer Hypertuning Results'!$A$2:$A$20</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'ShortAnswer Hypertuning Results'!$G$2:$G$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'ShortAnswer Hypertuning Results'!$B$2:$B$20</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'ShortAnswer Hypertuning Results'!$G$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'ShortAnswer Hypertuning Results'!$G$1:$G$20</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'ShortAnswer Hypertuning Results'!$A$2:$A$20</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -132,9 +119,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -175,9 +162,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,7 +229,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1393517670756274E-2"/>
+          <c:y val="0.17006060606060605"/>
+          <c:w val="0.87045596044680462"/>
+          <c:h val="0.75641103952914979"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -412,6 +409,7 @@
         <c:axId val="1742257183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="5.000000000000001E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -460,7 +458,7 @@
         <c:axId val="1742410287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.76000000000000012"/>
+          <c:max val="0.75000000000000011"/>
           <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -782,6 +780,7 @@
         <c:axId val="1742257183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -830,8 +829,8 @@
         <c:axId val="1742410287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.76000000000000012"/>
-          <c:min val="0.70000000000000007"/>
+          <c:max val="0.75000000000000011"/>
+          <c:min val="0.71000000000000008"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -951,6 +950,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45899412014838925"/>
+          <c:y val="1.8523090019153039E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1538,6 +1545,7 @@
         <c:axId val="1742257183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1586,8 +1594,8 @@
         <c:axId val="1742410287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.76000000000000012"/>
-          <c:min val="0.70000000000000007"/>
+          <c:max val="0.75000000000000011"/>
+          <c:min val="0.71000000000000008"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3920,16 +3928,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3956,16 +3964,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3994,16 +4002,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1708150</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4032,16 +4040,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1771650</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4368,10 +4376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4187893-C62D-BB41-AE0E-B9FEF22E5CB0}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4379,7 +4387,7 @@
     <col min="1" max="2" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60" customWidth="1"/>
+    <col min="8" max="8" width="60" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4900,6 +4908,12 @@
       </c>
       <c r="H20" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="3">
+        <f>AVERAGE(G2:G15)</f>
+        <v>0.72297297170723651</v>
       </c>
     </row>
   </sheetData>
@@ -4907,6 +4921,7 @@
     <sortCondition descending="1" ref="G2:G20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>